--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/53_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/53_455-55R22.xlsx
@@ -953,52 +953,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1440398611590843</v>
+        <v>0.1788987289031521</v>
       </c>
       <c r="E2">
-        <v>0.05199922911030028</v>
+        <v>0.04736368161935984</v>
       </c>
       <c r="F2">
-        <v>0.0894537166566292</v>
+        <v>0.1008898002555874</v>
       </c>
       <c r="G2">
-        <v>0.0598471181661668</v>
+        <v>0.05857908111264262</v>
       </c>
       <c r="H2">
-        <v>0.248645823621184</v>
+        <v>0.3283908598494721</v>
       </c>
       <c r="I2">
-        <v>0.0322585903323584</v>
+        <v>0.01915238192193286</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01885685920642436</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02287057116300753</v>
+        <v>0.005735986164380794</v>
       </c>
       <c r="M2">
-        <v>0.01466962212676363</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1065113472114205</v>
+        <v>0.1252668193137</v>
       </c>
       <c r="O2">
-        <v>0.08669502483126477</v>
+        <v>0.096947360361233</v>
       </c>
       <c r="P2">
-        <v>0.02029742392916514</v>
+        <v>0.002058707602318924</v>
       </c>
       <c r="Q2">
-        <v>0.008113602111316816</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.02505845252697574</v>
+        <v>0.008862682192590966</v>
       </c>
       <c r="S2">
-        <v>0.03834741779999184</v>
+        <v>0.0278539107036292</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.009143360069946082</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01123502425563635</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01195695572236423</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1324,100 +1324,100 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.02134696277491585</v>
+        <v>0.02697337714832499</v>
       </c>
       <c r="AV3">
-        <v>0.2804519054699119</v>
+        <v>0.2329926577236919</v>
       </c>
       <c r="AW3">
-        <v>0.1156099112181266</v>
+        <v>0.10192364487071</v>
       </c>
       <c r="AX3">
-        <v>0.04025415207215931</v>
+        <v>0.04200684388271161</v>
       </c>
       <c r="AY3">
-        <v>0.1159146408970671</v>
+        <v>0.1021659412490511</v>
       </c>
       <c r="AZ3">
-        <v>0.02469577974573342</v>
+        <v>0.02963608537739398</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>0.001345268816388025</v>
       </c>
       <c r="BB3">
-        <v>0.001656077765801297</v>
+        <v>0.01131677900984262</v>
       </c>
       <c r="BC3">
-        <v>0.0045198367140414</v>
+        <v>0.0135938083560261</v>
       </c>
       <c r="BD3">
-        <v>0.04099862227415219</v>
+        <v>0.0425987863359473</v>
       </c>
       <c r="BE3">
-        <v>0.115091041441878</v>
+        <v>0.1015110816177547</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>0.0001110418953541834</v>
       </c>
       <c r="BG3">
-        <v>0.0547073793423512</v>
+        <v>0.05349888048080276</v>
       </c>
       <c r="BH3">
-        <v>0.001358848016460848</v>
+        <v>0.01108044596853588</v>
       </c>
       <c r="BI3">
-        <v>0.1106175892869154</v>
+        <v>0.09795415450911753</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>0.004933765330528543</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.0002302143132392998</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>0.001957325049311949</v>
       </c>
       <c r="BM3">
-        <v>0.01029874502437804</v>
+        <v>0.01818872854636779</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>0.001610675039686868</v>
       </c>
       <c r="BO3">
-        <v>0.03703533791817936</v>
+        <v>0.03944750337221672</v>
       </c>
       <c r="BP3">
-        <v>0.01357456197392885</v>
+        <v>0.02079339306655598</v>
       </c>
       <c r="BQ3">
-        <v>0.01186860806399932</v>
+        <v>0.01943695658347377</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>0.00407232024831613</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.008245379965290974</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.001926315311535796</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>0.002038878967683715</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>0.0004218537564874244</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>0.003986726259384211</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>0.001217105773543402</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>0.001641771326500722</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>0.001142289848224405</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1566,100 +1566,100 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.01045068225372739</v>
+        <v>0.01849307877458446</v>
       </c>
       <c r="AV4">
-        <v>0.3200822302152641</v>
+        <v>0.2701249879732328</v>
       </c>
       <c r="AW4">
-        <v>0.08278433649782441</v>
+        <v>0.07727731971058262</v>
       </c>
       <c r="AX4">
-        <v>0.08630099484508244</v>
+        <v>0.08013524378112928</v>
       </c>
       <c r="AY4">
-        <v>0.1210413191814545</v>
+        <v>0.1083680714645264</v>
       </c>
       <c r="AZ4">
-        <v>0.02070247771078018</v>
+        <v>0.02682452587858783</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>0.0001110752176865623</v>
       </c>
       <c r="BB4">
-        <v>0.01730881270231605</v>
+        <v>0.02406655625022632</v>
       </c>
       <c r="BC4">
-        <v>0.02513242272672845</v>
+        <v>0.03042466136008783</v>
       </c>
       <c r="BD4">
-        <v>0.01595788360828559</v>
+        <v>0.02296868082583606</v>
       </c>
       <c r="BE4">
-        <v>0.1127131065514882</v>
+        <v>0.101599885024587</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.002811491795118375</v>
       </c>
       <c r="BG4">
-        <v>0.0414545326010077</v>
+        <v>0.04368934222628045</v>
       </c>
       <c r="BH4">
-        <v>0.01921706084674068</v>
+        <v>0.02561735469750209</v>
       </c>
       <c r="BI4">
-        <v>0.04121452712236015</v>
+        <v>0.04349429415315025</v>
       </c>
       <c r="BJ4">
-        <v>0.01662274724793712</v>
+        <v>0.02350900337405088</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>0.000857314232656485</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.00199976412804214</v>
       </c>
       <c r="BM4">
-        <v>0.01180009776807494</v>
+        <v>0.01958972414038462</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.001260468253062928</v>
       </c>
       <c r="BO4">
-        <v>0.03532389435583907</v>
+        <v>0.03870708438984814</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.000340032690335675</v>
       </c>
       <c r="BQ4">
-        <v>0.02189287376508887</v>
+        <v>0.02779193903083368</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.0004322115696917848</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.003879603129322993</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>1.768783678454965E-05</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.001307229732577642</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>4.764249382697705E-05</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.0004963122403235041</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>0.003296314575132917</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>0.0003213255789894886</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.0001397734710173549</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -1679,52 +1679,52 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2291474675681922</v>
+        <v>0.2229568361145985</v>
       </c>
       <c r="E5">
-        <v>0.05369408031772487</v>
+        <v>0.0545018657759873</v>
       </c>
       <c r="F5">
-        <v>0.02070278735534318</v>
+        <v>0.02282651675877623</v>
       </c>
       <c r="G5">
-        <v>0.07418240816637678</v>
+        <v>0.07417296312052266</v>
       </c>
       <c r="H5">
-        <v>0.2724926065107549</v>
+        <v>0.2645730409044718</v>
       </c>
       <c r="I5">
-        <v>0.04726224072210775</v>
+        <v>0.0483265769127653</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0352122911184769</v>
+        <v>0.03675727104257619</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1297154412277985</v>
+        <v>0.1274909160182944</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0005408388847592385</v>
       </c>
       <c r="O5">
-        <v>0.09850319528321855</v>
+        <v>0.09752365207889922</v>
       </c>
       <c r="P5">
-        <v>0.02485129970119806</v>
+        <v>0.02680955484724999</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.001233772143042631</v>
       </c>
       <c r="S5">
-        <v>0.01423618202880842</v>
+        <v>0.01661784888667725</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.001680480638335748</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.0006664779632798214</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0007066243954925808</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.002614763514270892</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1921,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2061705526365559</v>
+        <v>0.2552640523977103</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2093457232767264</v>
+        <v>0.2595690243089893</v>
       </c>
       <c r="G6">
-        <v>0.03985489735164415</v>
+        <v>0.02976932926400874</v>
       </c>
       <c r="H6">
-        <v>0.08890898459673401</v>
+        <v>0.09627802805702895</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1948,25 +1948,25 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.105128611711436</v>
+        <v>0.1182689844663708</v>
       </c>
       <c r="N6">
-        <v>0.04394569510897464</v>
+        <v>0.03531573020927737</v>
       </c>
       <c r="O6">
-        <v>0.01055198716990158</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.07018706470300491</v>
+        <v>0.07089440355255471</v>
       </c>
       <c r="Q6">
-        <v>0.0178982615815012</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.03077387609962247</v>
+        <v>0.01745706455574673</v>
       </c>
       <c r="S6">
-        <v>0.04191767858090419</v>
+        <v>0.03256609714121522</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02249649838410797</v>
+        <v>0.006234398878029612</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.07100101084237019</v>
+        <v>0.07199797109721848</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01120407994504312</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.02260751369024907</v>
+        <v>0.006384916071850027</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.008007564321224101</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2295,100 +2295,100 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.2900464555942228</v>
+        <v>0.239636304292584</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>0.009456207486998394</v>
       </c>
       <c r="AX7">
-        <v>0.09381474666880492</v>
+        <v>0.08427524556034763</v>
       </c>
       <c r="AY7">
-        <v>0.0423864498925955</v>
+        <v>0.04355830598059649</v>
       </c>
       <c r="AZ7">
-        <v>0.09025142926570172</v>
+        <v>0.0814540870056131</v>
       </c>
       <c r="BA7">
-        <v>0.06713874682255049</v>
+        <v>0.06315525633154141</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>0.008081198552928069</v>
       </c>
       <c r="BC7">
-        <v>0.04222813272712365</v>
+        <v>0.04343296271890915</v>
       </c>
       <c r="BD7">
-        <v>0.01858332707305569</v>
+        <v>0.02471283812716871</v>
       </c>
       <c r="BE7">
-        <v>0.07530380153391449</v>
+        <v>0.06961971384205659</v>
       </c>
       <c r="BF7">
-        <v>0.1261235172861375</v>
+        <v>0.1098548261334014</v>
       </c>
       <c r="BG7">
-        <v>0.131911282950604</v>
+        <v>0.1144371304217841</v>
       </c>
       <c r="BH7">
-        <v>0.0001977096902547715</v>
+        <v>0.01015653120980197</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>8.847803444207371E-05</v>
       </c>
       <c r="BJ7">
-        <v>0.0002220241013115252</v>
+        <v>0.01017578147605564</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>0.006733765445575001</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>0.0002964982309037373</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>5.680593768719535E-05</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>0.003929560459642867</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>0.001036879010761027</v>
       </c>
       <c r="BP7">
-        <v>0.002589801883468694</v>
+        <v>0.01205040441591098</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>0.006322456429736487</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>0.005423244890573406</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>0.0004309242289917381</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>0.009096147413468272</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>0.002376650345721515</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>0.0009336962646182227</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>0.001756354227658677</v>
       </c>
       <c r="BX7">
-        <v>0.0192025745102541</v>
+        <v>0.02520311025488552</v>
       </c>
       <c r="BY7">
-        <v>0</v>
+        <v>0.00902134669538922</v>
       </c>
       <c r="BZ7">
-        <v>0</v>
+        <v>0.002109369893436961</v>
       </c>
       <c r="CA7">
-        <v>0</v>
+        <v>0.001127918680810167</v>
       </c>
       <c r="CB7">
         <v>0</v>
@@ -2540,100 +2540,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.4000266794880225</v>
+        <v>0.3407213668241411</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.971042591922948E-05</v>
       </c>
       <c r="AY8">
-        <v>0.1133002218889764</v>
+        <v>0.1036707628915103</v>
       </c>
       <c r="AZ8">
-        <v>0.08808075374638197</v>
+        <v>0.08282061113320377</v>
       </c>
       <c r="BA8">
-        <v>0.06552603829689217</v>
+        <v>0.06417353906458147</v>
       </c>
       <c r="BB8">
-        <v>0.02681220313316038</v>
+        <v>0.03216694266271014</v>
       </c>
       <c r="BC8">
-        <v>0.02476379215942235</v>
+        <v>0.03047342242571181</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>0.001540523037488016</v>
       </c>
       <c r="BE8">
-        <v>0.01420950972609098</v>
+        <v>0.02174768764055509</v>
       </c>
       <c r="BF8">
-        <v>0.04923750167972749</v>
+        <v>0.05070701953021358</v>
       </c>
       <c r="BG8">
-        <v>0.1765088330788507</v>
+        <v>0.1559283730952239</v>
       </c>
       <c r="BH8">
-        <v>0.01380809630442771</v>
+        <v>0.02141581978703107</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>0.0001233589197002098</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>0.0009066498304771898</v>
       </c>
       <c r="BK8">
-        <v>0.02772637049804718</v>
+        <v>0.03292272895378535</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>0.004238701937582951</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>0.0006413837690871274</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>0.000602464739345029</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.004187089489353448</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>0.009685706239759131</v>
       </c>
       <c r="BQ8">
-        <v>0</v>
+        <v>0.007911840846138501</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>0.007343859001271782</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>0.004581334808602772</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>0.0001361560381312482</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>0.001014820875292139</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>3.893119645458044E-05</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>0.002562332585584963</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.002409496096776174</v>
       </c>
       <c r="BY8">
-        <v>0</v>
+        <v>0.006577773055436265</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
+        <v>5.954484913770344E-06</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>0.007567283320475492</v>
       </c>
       <c r="CB8">
-        <v>0</v>
+        <v>0.001156355293542418</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -2779,100 +2779,100 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.3747883936947653</v>
+        <v>0.3157401301176623</v>
       </c>
       <c r="AW9">
-        <v>0.002135567831996343</v>
+        <v>0.01174212648474225</v>
       </c>
       <c r="AX9">
-        <v>0.1779798501395487</v>
+        <v>0.155190148508987</v>
       </c>
       <c r="AY9">
-        <v>0.04660066456630242</v>
+        <v>0.04801530006736128</v>
       </c>
       <c r="AZ9">
-        <v>0.06174792820019077</v>
+        <v>0.06037194299511222</v>
       </c>
       <c r="BA9">
-        <v>0.0506313024559325</v>
+        <v>0.05130336280773608</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>0.005139466251770677</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>0.001160408841484367</v>
       </c>
       <c r="BD9">
-        <v>0.03303232387429425</v>
+        <v>0.03694669090430946</v>
       </c>
       <c r="BE9">
-        <v>0.1491885643868892</v>
+        <v>0.131703157982162</v>
       </c>
       <c r="BF9">
-        <v>0.07107743783216967</v>
+        <v>0.06798265222944957</v>
       </c>
       <c r="BG9">
-        <v>0.0120919714163277</v>
+        <v>0.01986423532959772</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>0.00745805043557588</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>3.952618255304791E-05</v>
       </c>
       <c r="BJ9">
-        <v>0.005368551821466064</v>
+        <v>0.01437948922659334</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>0.0001234610702551971</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>5.623095515733831E-05</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>0.001464737746274489</v>
       </c>
       <c r="BN9">
-        <v>0.002389696666808259</v>
+        <v>0.01194943648774443</v>
       </c>
       <c r="BO9">
-        <v>0.005368551821466064</v>
+        <v>0.01437948922659334</v>
       </c>
       <c r="BP9">
-        <v>0.007599195291842892</v>
+        <v>0.01619917531173544</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>0.006422459000167056</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>0.001014272533806408</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>0.001424723478974273</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>0.004053107032748477</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>0.0003412433446617631</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>2.918977655400766E-05</v>
       </c>
       <c r="BW9">
-        <v>0</v>
+        <v>0.004498667085628497</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>0.008209258330991365</v>
       </c>
       <c r="BY9">
-        <v>0</v>
+        <v>0.001458366103291089</v>
       </c>
       <c r="BZ9">
-        <v>0</v>
+        <v>0.001161442464920221</v>
       </c>
       <c r="CA9">
-        <v>0</v>
+        <v>0.0001780516853994286</v>
       </c>
       <c r="CB9">
         <v>0</v>
@@ -3021,100 +3021,100 @@
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0.1107872017314863</v>
+        <v>0.09803506856729313</v>
       </c>
       <c r="AW10">
-        <v>0.1502850754742732</v>
+        <v>0.1294213475676074</v>
       </c>
       <c r="AX10">
-        <v>0.07468297254286077</v>
+        <v>0.06934548852091321</v>
       </c>
       <c r="AY10">
-        <v>0.1791095494822989</v>
+        <v>0.1523262003489148</v>
       </c>
       <c r="AZ10">
-        <v>0.1042600871656222</v>
+        <v>0.09284841370669725</v>
       </c>
       <c r="BA10">
-        <v>0.04848694058836858</v>
+        <v>0.04852928021109275</v>
       </c>
       <c r="BB10">
-        <v>0.04481533172823173</v>
+        <v>0.04561170189245412</v>
       </c>
       <c r="BC10">
-        <v>0.009272247045508674</v>
+        <v>0.01736802529233163</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>0.0006769784335053226</v>
       </c>
       <c r="BE10">
-        <v>0.04633783649264073</v>
+        <v>0.04682153307542445</v>
       </c>
       <c r="BF10">
-        <v>0.1457028512216543</v>
+        <v>0.1257801650125346</v>
       </c>
       <c r="BG10">
-        <v>0.06362821336596663</v>
+        <v>0.06056102184134549</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>0.004825729536873561</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>0.003742145334017848</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>0.0002583506760599633</v>
       </c>
       <c r="BK10">
-        <v>0.001533109719630546</v>
+        <v>0.01121825822098096</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>0.001346375796609026</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>0.004800989314911307</v>
       </c>
       <c r="BN10">
-        <v>0.00532975623051695</v>
+        <v>0.01423519547264787</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>0.008411649279983896</v>
       </c>
       <c r="BP10">
-        <v>0.0157688272109406</v>
+        <v>0.02253041653769306</v>
       </c>
       <c r="BQ10">
-        <v>0</v>
+        <v>0.00325593052881193</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>0.006933162835922808</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>0.006448180970898397</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>4.496078137233887E-07</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>0.004120662731046318</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>0.005078825088112394</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>0.001772397338485588</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>0.008396724966413971</v>
       </c>
       <c r="BY10">
-        <v>0</v>
+        <v>0.004914446236858051</v>
       </c>
       <c r="BZ10">
-        <v>0</v>
+        <v>0.0003349604224444098</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>4.992463330061767E-05</v>
       </c>
       <c r="CB10">
         <v>0</v>
@@ -3263,100 +3263,100 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.1316658952575557</v>
+        <v>0.116363582041214</v>
       </c>
       <c r="AW11">
-        <v>0.2216596978658902</v>
+        <v>0.1890632222039774</v>
       </c>
       <c r="AX11">
-        <v>0.06271998236179284</v>
+        <v>0.06066704613607388</v>
       </c>
       <c r="AY11">
-        <v>0.1628914431221491</v>
+        <v>0.1415884978448146</v>
       </c>
       <c r="AZ11">
-        <v>0.06465855142027412</v>
+        <v>0.06223307922832599</v>
       </c>
       <c r="BA11">
-        <v>0.01323479165485511</v>
+        <v>0.02069145388960376</v>
       </c>
       <c r="BB11">
-        <v>0.006865896843846619</v>
+        <v>0.01554647337344622</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>0.004110925042228674</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>0.008750832677480109</v>
       </c>
       <c r="BE11">
-        <v>0.05581282350499803</v>
+        <v>0.05508724009519077</v>
       </c>
       <c r="BF11">
-        <v>0.1544405595874239</v>
+        <v>0.1347616256133366</v>
       </c>
       <c r="BG11">
-        <v>0.06444506310666072</v>
+        <v>0.06206061709061416</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>0.002253985452311418</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.001469020639666292</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>0.005927958035974608</v>
       </c>
       <c r="BK11">
-        <v>0.01726048630900113</v>
+        <v>0.02394352841339405</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>0.003095956848197556</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>0.003294983706609461</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.006989549253954087</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.0002708677417193709</v>
       </c>
       <c r="BP11">
-        <v>0.0443448089655523</v>
+        <v>0.04582304071440105</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.004602928012254302</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.008054785529193155</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>0.003580234804273206</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.002648558998031116</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.003551457047939013</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>0.0009067467757175231</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>5.391478488995025E-06</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>0.00710849924852324</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>0.004064574226785514</v>
       </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>8.102320793114138E-05</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>0.001402314628329211</v>
       </c>
       <c r="CB11">
         <v>0</v>
@@ -3628,235 +3628,235 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1440398611590843</v>
+        <v>0.1788987289031521</v>
       </c>
       <c r="E2">
-        <v>0.1960390902693846</v>
+        <v>0.2262624105225119</v>
       </c>
       <c r="F2">
-        <v>0.2854928069260138</v>
+        <v>0.3271522107780994</v>
       </c>
       <c r="G2">
-        <v>0.3453399250921805</v>
+        <v>0.385731291890742</v>
       </c>
       <c r="H2">
-        <v>0.5939857487133645</v>
+        <v>0.7141221517402141</v>
       </c>
       <c r="I2">
-        <v>0.626244339045723</v>
+        <v>0.7332745336621469</v>
       </c>
       <c r="J2">
-        <v>0.626244339045723</v>
+        <v>0.7332745336621469</v>
       </c>
       <c r="K2">
-        <v>0.6451011982521473</v>
+        <v>0.7332745336621469</v>
       </c>
       <c r="L2">
-        <v>0.6679717694151548</v>
+        <v>0.7390105198265277</v>
       </c>
       <c r="M2">
-        <v>0.6826413915419184</v>
+        <v>0.7390105198265277</v>
       </c>
       <c r="N2">
-        <v>0.7891527387533389</v>
+        <v>0.8642773391402276</v>
       </c>
       <c r="O2">
-        <v>0.8758477635846037</v>
+        <v>0.9612246995014606</v>
       </c>
       <c r="P2">
-        <v>0.8961451875137688</v>
+        <v>0.9632834071037796</v>
       </c>
       <c r="Q2">
-        <v>0.9042587896250857</v>
+        <v>0.9632834071037796</v>
       </c>
       <c r="R2">
-        <v>0.9293172421520614</v>
+        <v>0.9721460892963706</v>
       </c>
       <c r="S2">
-        <v>0.9676646599520532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T2">
-        <v>0.9676646599520532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U2">
-        <v>0.9676646599520532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V2">
-        <v>0.9676646599520532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W2">
-        <v>0.9676646599520532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X2">
-        <v>0.9768080200219993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y2">
-        <v>0.9768080200219993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z2">
-        <v>0.9768080200219993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA2">
-        <v>0.9768080200219993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB2">
-        <v>0.9880430442776357</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC2">
-        <v>0.9880430442776357</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD2">
-        <v>0.9880430442776357</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE2">
-        <v>0.9880430442776357</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -3999,97 +3999,97 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.02134696277491585</v>
+        <v>0.02697337714832499</v>
       </c>
       <c r="AV3">
-        <v>0.3017988682448278</v>
+        <v>0.2599660348720169</v>
       </c>
       <c r="AW3">
-        <v>0.4174087794629544</v>
+        <v>0.3618896797427268</v>
       </c>
       <c r="AX3">
-        <v>0.4576629315351137</v>
+        <v>0.4038965236254384</v>
       </c>
       <c r="AY3">
-        <v>0.5735775724321808</v>
+        <v>0.5060624648744896</v>
       </c>
       <c r="AZ3">
-        <v>0.5982733521779142</v>
+        <v>0.5356985502518835</v>
       </c>
       <c r="BA3">
-        <v>0.5982733521779142</v>
+        <v>0.5370438190682716</v>
       </c>
       <c r="BB3">
-        <v>0.5999294299437156</v>
+        <v>0.5483605980781142</v>
       </c>
       <c r="BC3">
-        <v>0.604449266657757</v>
+        <v>0.5619544064341403</v>
       </c>
       <c r="BD3">
-        <v>0.6454478889319092</v>
+        <v>0.6045531927700876</v>
       </c>
       <c r="BE3">
-        <v>0.7605389303737872</v>
+        <v>0.7060642743878423</v>
       </c>
       <c r="BF3">
-        <v>0.7605389303737872</v>
+        <v>0.7061753162831964</v>
       </c>
       <c r="BG3">
-        <v>0.8152463097161383</v>
+        <v>0.7596741967639992</v>
       </c>
       <c r="BH3">
-        <v>0.8166051577325991</v>
+        <v>0.770754642732535</v>
       </c>
       <c r="BI3">
-        <v>0.9272227470195146</v>
+        <v>0.8687087972416525</v>
       </c>
       <c r="BJ3">
-        <v>0.9272227470195146</v>
+        <v>0.8736425625721811</v>
       </c>
       <c r="BK3">
-        <v>0.9272227470195146</v>
+        <v>0.8738727768854204</v>
       </c>
       <c r="BL3">
-        <v>0.9272227470195146</v>
+        <v>0.8758301019347323</v>
       </c>
       <c r="BM3">
-        <v>0.9375214920438926</v>
+        <v>0.8940188304811001</v>
       </c>
       <c r="BN3">
-        <v>0.9375214920438926</v>
+        <v>0.8956295055207869</v>
       </c>
       <c r="BO3">
-        <v>0.9745568299620719</v>
+        <v>0.9350770088930036</v>
       </c>
       <c r="BP3">
-        <v>0.9881313919360007</v>
+        <v>0.9558704019595596</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0.9753073585430334</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0.9793796787913496</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0.9876250587566405</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0.9895513740681763</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0.99159025303586</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0.9920121067923474</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0.9959988330517316</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0.997215938825275</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0.9988577101517757</v>
       </c>
       <c r="BZ3">
         <v>1</v>
@@ -4241,106 +4241,106 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.01045068225372739</v>
+        <v>0.01849307877458446</v>
       </c>
       <c r="AV4">
-        <v>0.3305329124689915</v>
+        <v>0.2886180667478173</v>
       </c>
       <c r="AW4">
-        <v>0.4133172489668159</v>
+        <v>0.3658953864583999</v>
       </c>
       <c r="AX4">
-        <v>0.4996182438118983</v>
+        <v>0.4460306302395292</v>
       </c>
       <c r="AY4">
-        <v>0.6206595629933529</v>
+        <v>0.5543987017040556</v>
       </c>
       <c r="AZ4">
-        <v>0.6413620407041331</v>
+        <v>0.5812232275826434</v>
       </c>
       <c r="BA4">
-        <v>0.6413620407041331</v>
+        <v>0.58133430280033</v>
       </c>
       <c r="BB4">
-        <v>0.6586708534064492</v>
+        <v>0.6054008590505564</v>
       </c>
       <c r="BC4">
-        <v>0.6838032761331776</v>
+        <v>0.6358255204106442</v>
       </c>
       <c r="BD4">
-        <v>0.6997611597414631</v>
+        <v>0.6587942012364802</v>
       </c>
       <c r="BE4">
-        <v>0.8124742662929514</v>
+        <v>0.7603940862610672</v>
       </c>
       <c r="BF4">
-        <v>0.8124742662929514</v>
+        <v>0.7632055780561856</v>
       </c>
       <c r="BG4">
-        <v>0.8539287988939591</v>
+        <v>0.806894920282466</v>
       </c>
       <c r="BH4">
-        <v>0.8731458597406998</v>
+        <v>0.832512274979968</v>
       </c>
       <c r="BI4">
-        <v>0.91436038686306</v>
+        <v>0.8760065691331183</v>
       </c>
       <c r="BJ4">
-        <v>0.9309831341109971</v>
+        <v>0.8995155725071692</v>
       </c>
       <c r="BK4">
-        <v>0.9309831341109971</v>
+        <v>0.9003728867398256</v>
       </c>
       <c r="BL4">
-        <v>0.9309831341109971</v>
+        <v>0.9023726508678678</v>
       </c>
       <c r="BM4">
-        <v>0.942783231879072</v>
+        <v>0.9219623750082524</v>
       </c>
       <c r="BN4">
-        <v>0.942783231879072</v>
+        <v>0.9232228432613153</v>
       </c>
       <c r="BO4">
-        <v>0.978107126234911</v>
+        <v>0.9619299276511635</v>
       </c>
       <c r="BP4">
-        <v>0.978107126234911</v>
+        <v>0.9622699603414991</v>
       </c>
       <c r="BQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9900618993723328</v>
       </c>
       <c r="BR4">
-        <v>0.9999999999999999</v>
+        <v>0.9904941109420246</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999999</v>
+        <v>0.9943737140713476</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999999</v>
+        <v>0.9943914019081321</v>
       </c>
       <c r="BU4">
-        <v>0.9999999999999999</v>
+        <v>0.9956986316407098</v>
       </c>
       <c r="BV4">
-        <v>0.9999999999999999</v>
+        <v>0.9957462741345368</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999999</v>
+        <v>0.9962425863748603</v>
       </c>
       <c r="BX4">
-        <v>0.9999999999999999</v>
+        <v>0.9995389009499932</v>
       </c>
       <c r="BY4">
-        <v>0.9999999999999999</v>
+        <v>0.9998602265289827</v>
       </c>
       <c r="BZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:80">
@@ -4354,235 +4354,235 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2291474675681922</v>
+        <v>0.2229568361145985</v>
       </c>
       <c r="E5">
-        <v>0.282841547885917</v>
+        <v>0.2774587018905858</v>
       </c>
       <c r="F5">
-        <v>0.3035443352412602</v>
+        <v>0.300285218649362</v>
       </c>
       <c r="G5">
-        <v>0.377726743407637</v>
+        <v>0.3744581817698847</v>
       </c>
       <c r="H5">
-        <v>0.6502193499183919</v>
+        <v>0.6390312226743564</v>
       </c>
       <c r="I5">
-        <v>0.6974815906404996</v>
+        <v>0.6873577995871217</v>
       </c>
       <c r="J5">
-        <v>0.6974815906404996</v>
+        <v>0.6873577995871217</v>
       </c>
       <c r="K5">
-        <v>0.7326938817589765</v>
+        <v>0.7241150706296979</v>
       </c>
       <c r="L5">
-        <v>0.7326938817589765</v>
+        <v>0.7241150706296979</v>
       </c>
       <c r="M5">
-        <v>0.8624093229867751</v>
+        <v>0.8516059866479924</v>
       </c>
       <c r="N5">
-        <v>0.8624093229867751</v>
+        <v>0.8521468255327516</v>
       </c>
       <c r="O5">
-        <v>0.9609125182699936</v>
+        <v>0.9496704776116508</v>
       </c>
       <c r="P5">
-        <v>0.9857638179711916</v>
+        <v>0.9764800324589008</v>
       </c>
       <c r="Q5">
-        <v>0.9857638179711916</v>
+        <v>0.9764800324589008</v>
       </c>
       <c r="R5">
-        <v>0.9857638179711916</v>
+        <v>0.9777138046019435</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9943316534886207</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9943316534886207</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9943316534886207</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9943316534886207</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9960121341269564</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9960121341269564</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9966786120902362</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9973852364857289</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9973852364857289</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9973852364857289</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9973852364857289</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9973852364857289</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9973852364857289</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:80">
@@ -4596,94 +4596,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2061705526365559</v>
+        <v>0.2552640523977103</v>
       </c>
       <c r="E6">
-        <v>0.2061705526365559</v>
+        <v>0.2552640523977103</v>
       </c>
       <c r="F6">
-        <v>0.4155162759132823</v>
+        <v>0.5148330767066995</v>
       </c>
       <c r="G6">
-        <v>0.4553711732649265</v>
+        <v>0.5446024059707083</v>
       </c>
       <c r="H6">
-        <v>0.5442801578616605</v>
+        <v>0.6408804340277372</v>
       </c>
       <c r="I6">
-        <v>0.5442801578616605</v>
+        <v>0.6408804340277372</v>
       </c>
       <c r="J6">
-        <v>0.5442801578616605</v>
+        <v>0.6408804340277372</v>
       </c>
       <c r="K6">
-        <v>0.5442801578616605</v>
+        <v>0.6408804340277372</v>
       </c>
       <c r="L6">
-        <v>0.5442801578616605</v>
+        <v>0.6408804340277372</v>
       </c>
       <c r="M6">
-        <v>0.6494087695730966</v>
+        <v>0.759149418494108</v>
       </c>
       <c r="N6">
-        <v>0.6933544646820712</v>
+        <v>0.7944651487033854</v>
       </c>
       <c r="O6">
-        <v>0.7039064518519728</v>
+        <v>0.7944651487033854</v>
       </c>
       <c r="P6">
-        <v>0.7740935165549777</v>
+        <v>0.8653595522559401</v>
       </c>
       <c r="Q6">
-        <v>0.7919917781364789</v>
+        <v>0.8653595522559401</v>
       </c>
       <c r="R6">
-        <v>0.8227656542361014</v>
+        <v>0.8828166168116868</v>
       </c>
       <c r="S6">
-        <v>0.8646833328170056</v>
+        <v>0.915382713952902</v>
       </c>
       <c r="T6">
-        <v>0.8646833328170056</v>
+        <v>0.915382713952902</v>
       </c>
       <c r="U6">
-        <v>0.8646833328170056</v>
+        <v>0.915382713952902</v>
       </c>
       <c r="V6">
-        <v>0.8871798312011135</v>
+        <v>0.9216171128309316</v>
       </c>
       <c r="W6">
-        <v>0.8871798312011135</v>
+        <v>0.9216171128309316</v>
       </c>
       <c r="X6">
-        <v>0.9581808420434837</v>
+        <v>0.9936150839281501</v>
       </c>
       <c r="Y6">
-        <v>0.9581808420434837</v>
+        <v>0.9936150839281501</v>
       </c>
       <c r="Z6">
-        <v>0.9581808420434837</v>
+        <v>0.9936150839281501</v>
       </c>
       <c r="AA6">
-        <v>0.9581808420434837</v>
+        <v>0.9936150839281501</v>
       </c>
       <c r="AB6">
-        <v>0.9581808420434837</v>
+        <v>0.9936150839281501</v>
       </c>
       <c r="AC6">
-        <v>0.9693849219885269</v>
+        <v>0.9936150839281501</v>
       </c>
       <c r="AD6">
-        <v>0.9919924356787759</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9919924356787759</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9919924356787759</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9919924356787759</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -4970,103 +4970,103 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.2900464555942228</v>
+        <v>0.239636304292584</v>
       </c>
       <c r="AW7">
-        <v>0.2900464555942228</v>
+        <v>0.2490925117795824</v>
       </c>
       <c r="AX7">
-        <v>0.3838612022630277</v>
+        <v>0.33336775733993</v>
       </c>
       <c r="AY7">
-        <v>0.4262476521556232</v>
+        <v>0.3769260633205265</v>
       </c>
       <c r="AZ7">
-        <v>0.5164990814213249</v>
+        <v>0.4583801503261395</v>
       </c>
       <c r="BA7">
-        <v>0.5836378282438754</v>
+        <v>0.5215354066576809</v>
       </c>
       <c r="BB7">
-        <v>0.5836378282438754</v>
+        <v>0.529616605210609</v>
       </c>
       <c r="BC7">
-        <v>0.6258659609709991</v>
+        <v>0.5730495679295182</v>
       </c>
       <c r="BD7">
-        <v>0.6444492880440548</v>
+        <v>0.597762406056687</v>
       </c>
       <c r="BE7">
-        <v>0.7197530895779692</v>
+        <v>0.6673821198987435</v>
       </c>
       <c r="BF7">
-        <v>0.8458766068641067</v>
+        <v>0.7772369460321449</v>
       </c>
       <c r="BG7">
-        <v>0.9777878898147108</v>
+        <v>0.8916740764539289</v>
       </c>
       <c r="BH7">
-        <v>0.9779855995049656</v>
+        <v>0.9018306076637309</v>
       </c>
       <c r="BI7">
-        <v>0.9779855995049656</v>
+        <v>0.901919085698173</v>
       </c>
       <c r="BJ7">
-        <v>0.9782076236062771</v>
+        <v>0.9120948671742287</v>
       </c>
       <c r="BK7">
-        <v>0.9782076236062771</v>
+        <v>0.9188286326198037</v>
       </c>
       <c r="BL7">
-        <v>0.9782076236062771</v>
+        <v>0.9191251308507075</v>
       </c>
       <c r="BM7">
-        <v>0.9782076236062771</v>
+        <v>0.9191819367883947</v>
       </c>
       <c r="BN7">
-        <v>0.9782076236062771</v>
+        <v>0.9231114972480375</v>
       </c>
       <c r="BO7">
-        <v>0.9782076236062771</v>
+        <v>0.9241483762587985</v>
       </c>
       <c r="BP7">
-        <v>0.9807974254897458</v>
+        <v>0.9361987806747095</v>
       </c>
       <c r="BQ7">
-        <v>0.9807974254897458</v>
+        <v>0.942521237104446</v>
       </c>
       <c r="BR7">
-        <v>0.9807974254897458</v>
+        <v>0.9479444819950195</v>
       </c>
       <c r="BS7">
-        <v>0.9807974254897458</v>
+        <v>0.9483754062240112</v>
       </c>
       <c r="BT7">
-        <v>0.9807974254897458</v>
+        <v>0.9574715536374795</v>
       </c>
       <c r="BU7">
-        <v>0.9807974254897458</v>
+        <v>0.959848203983201</v>
       </c>
       <c r="BV7">
-        <v>0.9807974254897458</v>
+        <v>0.9607819002478193</v>
       </c>
       <c r="BW7">
-        <v>0.9807974254897458</v>
+        <v>0.9625382544754779</v>
       </c>
       <c r="BX7">
-        <v>0.9999999999999999</v>
+        <v>0.9877413647303634</v>
       </c>
       <c r="BY7">
-        <v>0.9999999999999999</v>
+        <v>0.9967627114257527</v>
       </c>
       <c r="BZ7">
-        <v>0.9999999999999999</v>
+        <v>0.9988720813191896</v>
       </c>
       <c r="CA7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:80">
@@ -5215,97 +5215,97 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.4000266794880225</v>
+        <v>0.3407213668241411</v>
       </c>
       <c r="AX8">
-        <v>0.4000266794880225</v>
+        <v>0.3407410772500604</v>
       </c>
       <c r="AY8">
-        <v>0.5133269013769989</v>
+        <v>0.4444118401415706</v>
       </c>
       <c r="AZ8">
-        <v>0.6014076551233809</v>
+        <v>0.5272324512747744</v>
       </c>
       <c r="BA8">
-        <v>0.6669336934202731</v>
+        <v>0.5914059903393558</v>
       </c>
       <c r="BB8">
-        <v>0.6937458965534334</v>
+        <v>0.623572933002066</v>
       </c>
       <c r="BC8">
-        <v>0.7185096887128558</v>
+        <v>0.6540463554277778</v>
       </c>
       <c r="BD8">
-        <v>0.7185096887128558</v>
+        <v>0.6555868784652658</v>
       </c>
       <c r="BE8">
-        <v>0.7327191984389468</v>
+        <v>0.6773345661058209</v>
       </c>
       <c r="BF8">
-        <v>0.7819567001186744</v>
+        <v>0.7280415856360345</v>
       </c>
       <c r="BG8">
-        <v>0.9584655331975251</v>
+        <v>0.8839699587312584</v>
       </c>
       <c r="BH8">
-        <v>0.9722736295019528</v>
+        <v>0.9053857785182895</v>
       </c>
       <c r="BI8">
-        <v>0.9722736295019528</v>
+        <v>0.9055091374379897</v>
       </c>
       <c r="BJ8">
-        <v>0.9722736295019528</v>
+        <v>0.9064157872684668</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0.9393385162222522</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0.9435772181598351</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0.9442186019289223</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0.9448210666682673</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0.9490081561576207</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0.9586938623973799</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0.9666057032435184</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0.9739495622447901</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0.9785308970533929</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0.9786670530915241</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0.9796818739668163</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0.9797208051632709</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0.9822831377488558</v>
       </c>
       <c r="BX8">
-        <v>1</v>
+        <v>0.984692633845632</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0.9912704069010683</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>0.9912763613859821</v>
       </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0.9988436447064576</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -5454,97 +5454,97 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.3747883936947653</v>
+        <v>0.3157401301176623</v>
       </c>
       <c r="AW9">
-        <v>0.3769239615267617</v>
+        <v>0.3274822566024045</v>
       </c>
       <c r="AX9">
-        <v>0.5549038116663103</v>
+        <v>0.4826724051113915</v>
       </c>
       <c r="AY9">
-        <v>0.6015044762326127</v>
+        <v>0.5306877051787529</v>
       </c>
       <c r="AZ9">
-        <v>0.6632524044328035</v>
+        <v>0.591059648173865</v>
       </c>
       <c r="BA9">
-        <v>0.713883706888736</v>
+        <v>0.6423630109816011</v>
       </c>
       <c r="BB9">
-        <v>0.713883706888736</v>
+        <v>0.6475024772333717</v>
       </c>
       <c r="BC9">
-        <v>0.713883706888736</v>
+        <v>0.6486628860748561</v>
       </c>
       <c r="BD9">
-        <v>0.7469160307630303</v>
+        <v>0.6856095769791656</v>
       </c>
       <c r="BE9">
-        <v>0.8961045951499195</v>
+        <v>0.8173127349613275</v>
       </c>
       <c r="BF9">
-        <v>0.9671820329820892</v>
+        <v>0.8852953871907771</v>
       </c>
       <c r="BG9">
-        <v>0.9792740043984168</v>
+        <v>0.9051596225203747</v>
       </c>
       <c r="BH9">
-        <v>0.9792740043984168</v>
+        <v>0.9126176729559506</v>
       </c>
       <c r="BI9">
-        <v>0.9792740043984168</v>
+        <v>0.9126571991385037</v>
       </c>
       <c r="BJ9">
-        <v>0.9846425562198829</v>
+        <v>0.9270366883650971</v>
       </c>
       <c r="BK9">
-        <v>0.9846425562198829</v>
+        <v>0.9271601494353523</v>
       </c>
       <c r="BL9">
-        <v>0.9846425562198829</v>
+        <v>0.9272163803905097</v>
       </c>
       <c r="BM9">
-        <v>0.9846425562198829</v>
+        <v>0.9286811181367842</v>
       </c>
       <c r="BN9">
-        <v>0.9870322528866912</v>
+        <v>0.9406305546245286</v>
       </c>
       <c r="BO9">
-        <v>0.9924008047081573</v>
+        <v>0.955010043851122</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9712092191628574</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9776316781630244</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9786459506968308</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9800706741758051</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9841237812085536</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9844650245532154</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9844942143297694</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9889928814153979</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9972021397463893</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9986605058496804</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9998219483146006</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -5696,103 +5696,103 @@
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0.1107872017314863</v>
+        <v>0.09803506856729313</v>
       </c>
       <c r="AW10">
-        <v>0.2610722772057595</v>
+        <v>0.2274564161349005</v>
       </c>
       <c r="AX10">
-        <v>0.3357552497486203</v>
+        <v>0.2968019046558137</v>
       </c>
       <c r="AY10">
-        <v>0.5148647992309192</v>
+        <v>0.4491281050047285</v>
       </c>
       <c r="AZ10">
-        <v>0.6191248863965414</v>
+        <v>0.5419765187114257</v>
       </c>
       <c r="BA10">
-        <v>0.66761182698491</v>
+        <v>0.5905057989225184</v>
       </c>
       <c r="BB10">
-        <v>0.7124271587131417</v>
+        <v>0.6361175008149725</v>
       </c>
       <c r="BC10">
-        <v>0.7216994057586503</v>
+        <v>0.6534855261073041</v>
       </c>
       <c r="BD10">
-        <v>0.7216994057586503</v>
+        <v>0.6541625045408095</v>
       </c>
       <c r="BE10">
-        <v>0.7680372422512911</v>
+        <v>0.700984037616234</v>
       </c>
       <c r="BF10">
-        <v>0.9137400934729454</v>
+        <v>0.8267642026287685</v>
       </c>
       <c r="BG10">
-        <v>0.9773683068389121</v>
+        <v>0.887325224470114</v>
       </c>
       <c r="BH10">
-        <v>0.9773683068389121</v>
+        <v>0.8921509540069875</v>
       </c>
       <c r="BI10">
-        <v>0.9773683068389121</v>
+        <v>0.8958930993410054</v>
       </c>
       <c r="BJ10">
-        <v>0.9773683068389121</v>
+        <v>0.8961514500170653</v>
       </c>
       <c r="BK10">
-        <v>0.9789014165585426</v>
+        <v>0.9073697082380463</v>
       </c>
       <c r="BL10">
-        <v>0.9789014165585426</v>
+        <v>0.9087160840346553</v>
       </c>
       <c r="BM10">
-        <v>0.9789014165585426</v>
+        <v>0.9135170733495667</v>
       </c>
       <c r="BN10">
-        <v>0.9842311727890595</v>
+        <v>0.9277522688222145</v>
       </c>
       <c r="BO10">
-        <v>0.9842311727890595</v>
+        <v>0.9361639181021985</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>0.9586943346398915</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0.9619502651687034</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0.9688834280046262</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>0.9753316089755246</v>
       </c>
       <c r="BT10">
-        <v>1</v>
+        <v>0.9753320585833384</v>
       </c>
       <c r="BU10">
-        <v>1</v>
+        <v>0.9794527213143847</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0.9845315464024971</v>
       </c>
       <c r="BW10">
-        <v>1</v>
+        <v>0.9863039437409826</v>
       </c>
       <c r="BX10">
-        <v>1</v>
+        <v>0.9947006687073966</v>
       </c>
       <c r="BY10">
-        <v>1</v>
+        <v>0.9996151149442547</v>
       </c>
       <c r="BZ10">
-        <v>1</v>
+        <v>0.9999500753666991</v>
       </c>
       <c r="CA10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:80">
@@ -5938,103 +5938,103 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.1316658952575557</v>
+        <v>0.116363582041214</v>
       </c>
       <c r="AW11">
-        <v>0.353325593123446</v>
+        <v>0.3054268042451914</v>
       </c>
       <c r="AX11">
-        <v>0.4160455754852388</v>
+        <v>0.3660938503812653</v>
       </c>
       <c r="AY11">
-        <v>0.5789370186073879</v>
+        <v>0.5076823482260798</v>
       </c>
       <c r="AZ11">
-        <v>0.643595570027662</v>
+        <v>0.5699154274544058</v>
       </c>
       <c r="BA11">
-        <v>0.6568303616825171</v>
+        <v>0.5906068813440096</v>
       </c>
       <c r="BB11">
-        <v>0.6636962585263637</v>
+        <v>0.6061533547174558</v>
       </c>
       <c r="BC11">
-        <v>0.6636962585263637</v>
+        <v>0.6102642797596844</v>
       </c>
       <c r="BD11">
-        <v>0.6636962585263637</v>
+        <v>0.6190151124371646</v>
       </c>
       <c r="BE11">
-        <v>0.7195090820313618</v>
+        <v>0.6741023525323553</v>
       </c>
       <c r="BF11">
-        <v>0.8739496416187856</v>
+        <v>0.8088639781456919</v>
       </c>
       <c r="BG11">
-        <v>0.9383947047254464</v>
+        <v>0.8709245952363061</v>
       </c>
       <c r="BH11">
-        <v>0.9383947047254464</v>
+        <v>0.8731785806886174</v>
       </c>
       <c r="BI11">
-        <v>0.9383947047254464</v>
+        <v>0.8746476013282837</v>
       </c>
       <c r="BJ11">
-        <v>0.9383947047254464</v>
+        <v>0.8805755593642582</v>
       </c>
       <c r="BK11">
-        <v>0.9556551910344475</v>
+        <v>0.9045190877776523</v>
       </c>
       <c r="BL11">
-        <v>0.9556551910344475</v>
+        <v>0.9076150446258499</v>
       </c>
       <c r="BM11">
-        <v>0.9556551910344475</v>
+        <v>0.9109100283324593</v>
       </c>
       <c r="BN11">
-        <v>0.9556551910344475</v>
+        <v>0.9178995775864134</v>
       </c>
       <c r="BO11">
-        <v>0.9556551910344475</v>
+        <v>0.9181704453281327</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999998</v>
+        <v>0.9639934860425338</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999998</v>
+        <v>0.968596414054788</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999998</v>
+        <v>0.9766511995839812</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999998</v>
+        <v>0.9802314343882543</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999998</v>
+        <v>0.9828799933862854</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999998</v>
+        <v>0.9864314504342244</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999998</v>
+        <v>0.987338197209942</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999998</v>
+        <v>0.987343588688431</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999998</v>
+        <v>0.9944520879369542</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999998</v>
+        <v>0.9985166621637397</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999998</v>
+        <v>0.9985976853716708</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5939857487133645</v>
+        <v>0.7141221517402141</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5735775724321808</v>
+        <v>0.5060624648744896</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6206595629933529</v>
+        <v>0.5543987017040556</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6502193499183919</v>
+        <v>0.6390312226743564</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6266,16 +6266,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5442801578616605</v>
+        <v>0.5148330767066995</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -6307,16 +6307,16 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5164990814213249</v>
+        <v>0.5215354066576809</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>53</v>
@@ -6348,16 +6348,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5133269013769989</v>
+        <v>0.5272324512747744</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>53</v>
@@ -6389,16 +6389,16 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5549038116663103</v>
+        <v>0.5306877051787529</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>53</v>
@@ -6430,16 +6430,16 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5148647992309192</v>
+        <v>0.5419765187114257</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>53</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5789370186073879</v>
+        <v>0.5076823482260798</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6566,16 +6566,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7891527387533389</v>
+        <v>0.7141221517402141</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7605389303737872</v>
+        <v>0.7060642743878423</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8124742662929514</v>
+        <v>0.7603940862610672</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7326938817589765</v>
+        <v>0.7241150706296979</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -6730,16 +6730,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7039064518519728</v>
+        <v>0.759149418494108</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -6771,16 +6771,16 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7197530895779692</v>
+        <v>0.7772369460321449</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>53</v>
@@ -6812,16 +6812,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7185096887128558</v>
+        <v>0.7280415856360345</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>53</v>
@@ -6853,16 +6853,16 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.713883706888736</v>
+        <v>0.8173127349613275</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>53</v>
@@ -6894,16 +6894,16 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7124271587131417</v>
+        <v>0.700984037616234</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>53</v>
@@ -6935,16 +6935,16 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7195090820313618</v>
+        <v>0.8088639781456919</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>53</v>
@@ -7030,16 +7030,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8758477635846037</v>
+        <v>0.8642773391402276</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -7071,16 +7071,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8152463097161383</v>
+        <v>0.8687087972416525</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -7112,16 +7112,16 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8124742662929514</v>
+        <v>0.806894920282466</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8624093229867751</v>
+        <v>0.8516059866479924</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -7194,16 +7194,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8227656542361014</v>
+        <v>0.8653595522559401</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -7235,16 +7235,16 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8458766068641067</v>
+        <v>0.8916740764539289</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>53</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9584655331975251</v>
+        <v>0.8839699587312584</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8961045951499195</v>
+        <v>0.8173127349613275</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9137400934729454</v>
+        <v>0.8267642026287685</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8739496416187856</v>
+        <v>0.8088639781456919</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -7494,16 +7494,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9042587896250857</v>
+        <v>0.9612246995014606</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -7535,16 +7535,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9272227470195146</v>
+        <v>0.9350770088930036</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -7576,16 +7576,16 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.91436038686306</v>
+        <v>0.9003728867398256</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9609125182699936</v>
+        <v>0.9496704776116508</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -7658,16 +7658,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9581808420434837</v>
+        <v>0.915382713952902</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -7699,16 +7699,16 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9777878898147108</v>
+        <v>0.9018306076637309</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>53</v>
@@ -7740,16 +7740,16 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9584655331975251</v>
+        <v>0.9053857785182895</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>53</v>
@@ -7781,16 +7781,16 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9671820329820892</v>
+        <v>0.9051596225203747</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>53</v>
@@ -7822,16 +7822,16 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9137400934729454</v>
+        <v>0.9073697082380463</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>53</v>
@@ -7863,16 +7863,16 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9383947047254464</v>
+        <v>0.9045190877776523</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>53</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/53_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/53_455-55R22.xlsx
@@ -291,40 +291,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -334,9 +337,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -953,22 +953,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1788987289031521</v>
+        <v>0.1884440424976165</v>
       </c>
       <c r="E2">
-        <v>0.04736368161935984</v>
+        <v>0.04237541754547974</v>
       </c>
       <c r="F2">
-        <v>0.1008898002555874</v>
+        <v>0.1018157470216991</v>
       </c>
       <c r="G2">
-        <v>0.05857908111264262</v>
+        <v>0.05483002957552055</v>
       </c>
       <c r="H2">
-        <v>0.3283908598494721</v>
+        <v>0.3544538661865185</v>
       </c>
       <c r="I2">
-        <v>0.01915238192193286</v>
+        <v>0.01104699337252889</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.005735986164380794</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1252668193137</v>
+        <v>0.1288862330083589</v>
       </c>
       <c r="O2">
-        <v>0.096947360361233</v>
+        <v>0.0974376988420201</v>
       </c>
       <c r="P2">
-        <v>0.002058707602318924</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.008862682192590966</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0278539107036292</v>
+        <v>0.02070997195025766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1324,100 +1324,100 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.02697337714832499</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.2329926577236919</v>
+        <v>0.373080033976325</v>
       </c>
       <c r="AW3">
-        <v>0.10192364487071</v>
+        <v>0.1321884060880189</v>
       </c>
       <c r="AX3">
-        <v>0.04200684388271161</v>
+        <v>0.022067368218844</v>
       </c>
       <c r="AY3">
-        <v>0.1021659412490511</v>
+        <v>0.1326337223968821</v>
       </c>
       <c r="AZ3">
-        <v>0.02963608537739398</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.001345268816388025</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.01131677900984262</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0135938083560261</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0425987863359473</v>
+        <v>0.02315529875308925</v>
       </c>
       <c r="BE3">
-        <v>0.1015110816177547</v>
+        <v>0.1314301564342829</v>
       </c>
       <c r="BF3">
-        <v>0.0001110418953541834</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.05349888048080276</v>
+        <v>0.04318857256461387</v>
       </c>
       <c r="BH3">
-        <v>0.01108044596853588</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.09795415450911753</v>
+        <v>0.1248928831091168</v>
       </c>
       <c r="BJ3">
-        <v>0.004933765330528543</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002302143132392998</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001957325049311949</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01818872854636779</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001610675039686868</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.03944750337221672</v>
+        <v>0.01736355845882737</v>
       </c>
       <c r="BP3">
-        <v>0.02079339306655598</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01943695658347377</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.00407232024831613</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.008245379965290974</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001926315311535796</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.002038878967683715</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0004218537564874244</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.003986726259384211</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001217105773543402</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001641771326500722</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001142289848224405</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1569,100 +1569,100 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.2751837468189834</v>
+        <v>0.4584104844214785</v>
       </c>
       <c r="AW4">
-        <v>0.07872452875109001</v>
+        <v>0.09025474280541414</v>
       </c>
       <c r="AX4">
-        <v>0.08163597452202002</v>
+        <v>0.09571066127802698</v>
       </c>
       <c r="AY4">
-        <v>0.1103975317681857</v>
+        <v>0.1496085264030713</v>
       </c>
       <c r="AZ4">
-        <v>0.02732688150510551</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0001131553760022797</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.02451726207063585</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.03099443843232064</v>
+        <v>0.0008106995504134785</v>
       </c>
       <c r="BD4">
-        <v>0.02339882621214306</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.1035025942887381</v>
+        <v>0.1366877235712838</v>
       </c>
       <c r="BF4">
-        <v>0.002864143936243948</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.04450753327224961</v>
+        <v>0.02613363171541374</v>
       </c>
       <c r="BH4">
-        <v>0.02609710305641202</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.04430883244128793</v>
+        <v>0.02576127529202035</v>
       </c>
       <c r="BJ4">
-        <v>0.0239492676371447</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0008733695631558192</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.002037214659916482</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.01995659020125717</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001284073640231337</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.03943197032883342</v>
+        <v>0.01662225496287753</v>
       </c>
       <c r="BP4">
-        <v>0.0003464006439003798</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.02831241186256861</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0004403058008764642</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003952258298308728</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.801908529831137E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001331710844164997</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>4.853471741906E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0005056069151880139</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.003358046222547123</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0003273431956019884</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001423910751428214</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001119328570265413</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -1679,52 +1679,52 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2229568361145985</v>
+        <v>0.2760031717188374</v>
       </c>
       <c r="E5">
-        <v>0.0545018657759873</v>
+        <v>0.03864677517346711</v>
       </c>
       <c r="F5">
-        <v>0.02282651675877623</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07417296312052266</v>
+        <v>0.06636374174564268</v>
       </c>
       <c r="H5">
-        <v>0.2645730409044718</v>
+        <v>0.3346412302276662</v>
       </c>
       <c r="I5">
-        <v>0.0483265769127653</v>
+        <v>0.02994567060377209</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.03675727104257619</v>
+        <v>0.01364428901580555</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1274909160182944</v>
+        <v>0.1414897955839613</v>
       </c>
       <c r="N5">
-        <v>0.0005408388847592385</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.09752365207889922</v>
+        <v>0.09926532593084768</v>
       </c>
       <c r="P5">
-        <v>0.02680955484724999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001233772143042631</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01661784888667725</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001680480638335748</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0006664779632798214</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0007066243954925808</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002614763514270892</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1921,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2552640523977103</v>
+        <v>0.2762225708683844</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2595690243089893</v>
+        <v>0.2810692627648675</v>
       </c>
       <c r="G6">
-        <v>0.02976932926400874</v>
+        <v>0.02235251786097992</v>
       </c>
       <c r="H6">
-        <v>0.09627802805702895</v>
+        <v>0.09723039816519552</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1948,25 +1948,25 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1182689844663708</v>
+        <v>0.1219886062143166</v>
       </c>
       <c r="N6">
-        <v>0.03531573020927737</v>
+        <v>0.02859685512265849</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.07089440355255471</v>
+        <v>0.06865260260121669</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01745706455574673</v>
+        <v>0.008490928327133678</v>
       </c>
       <c r="S6">
-        <v>0.03256609714121522</v>
+        <v>0.02550121952179364</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.006234398878029612</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.07199797109721848</v>
+        <v>0.06989503855345372</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.006384916071850027</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2295,100 +2295,100 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.239636304292584</v>
+        <v>0.3618013147046515</v>
       </c>
       <c r="AW7">
-        <v>0.009456207486998394</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>0.08427524556034763</v>
+        <v>0.09367106172719457</v>
       </c>
       <c r="AY7">
-        <v>0.04355830598059649</v>
+        <v>0.02339963464582641</v>
       </c>
       <c r="AZ7">
-        <v>0.0814540870056131</v>
+        <v>0.08880215852105589</v>
       </c>
       <c r="BA7">
-        <v>0.06315525633154141</v>
+        <v>0.05722107805039072</v>
       </c>
       <c r="BB7">
-        <v>0.008081198552928069</v>
+        <v>0</v>
       </c>
       <c r="BC7">
-        <v>0.04343296271890915</v>
+        <v>0.02318331067932222</v>
       </c>
       <c r="BD7">
-        <v>0.02471283812716871</v>
+        <v>0</v>
       </c>
       <c r="BE7">
-        <v>0.06961971384205659</v>
+        <v>0.06837777743053472</v>
       </c>
       <c r="BF7">
-        <v>0.1098548261334014</v>
+        <v>0.137817641739442</v>
       </c>
       <c r="BG7">
-        <v>0.1144371304217841</v>
+        <v>0.1457260225015821</v>
       </c>
       <c r="BH7">
-        <v>0.01015653120980197</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>8.847803444207371E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0.01017578147605564</v>
+        <v>0</v>
       </c>
       <c r="BK7">
-        <v>0.006733765445575001</v>
+        <v>0</v>
       </c>
       <c r="BL7">
-        <v>0.0002964982309037373</v>
+        <v>0</v>
       </c>
       <c r="BM7">
-        <v>5.680593768719535E-05</v>
+        <v>0</v>
       </c>
       <c r="BN7">
-        <v>0.003929560459642867</v>
+        <v>0</v>
       </c>
       <c r="BO7">
-        <v>0.001036879010761027</v>
+        <v>0</v>
       </c>
       <c r="BP7">
-        <v>0.01205040441591098</v>
+        <v>0</v>
       </c>
       <c r="BQ7">
-        <v>0.006322456429736487</v>
+        <v>0</v>
       </c>
       <c r="BR7">
-        <v>0.005423244890573406</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>0.0004309242289917381</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>0.009096147413468272</v>
+        <v>0</v>
       </c>
       <c r="BU7">
-        <v>0.002376650345721515</v>
+        <v>0</v>
       </c>
       <c r="BV7">
-        <v>0.0009336962646182227</v>
+        <v>0</v>
       </c>
       <c r="BW7">
-        <v>0.001756354227658677</v>
+        <v>0</v>
       </c>
       <c r="BX7">
-        <v>0.02520311025488552</v>
+        <v>0</v>
       </c>
       <c r="BY7">
-        <v>0.00902134669538922</v>
+        <v>0</v>
       </c>
       <c r="BZ7">
-        <v>0.002109369893436961</v>
+        <v>0</v>
       </c>
       <c r="CA7">
-        <v>0.001127918680810167</v>
+        <v>0</v>
       </c>
       <c r="CB7">
         <v>0</v>
@@ -2540,100 +2540,100 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.3407213668241411</v>
+        <v>0.4982824845573577</v>
       </c>
       <c r="AX8">
-        <v>1.971042591922948E-05</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.1036707628915103</v>
+        <v>0.118140735373354</v>
       </c>
       <c r="AZ8">
-        <v>0.08282061113320377</v>
+        <v>0.08470478107219091</v>
       </c>
       <c r="BA8">
-        <v>0.06417353906458147</v>
+        <v>0.05480175414153268</v>
       </c>
       <c r="BB8">
-        <v>0.03216694266271014</v>
+        <v>0.003474976905851627</v>
       </c>
       <c r="BC8">
-        <v>0.03047342242571181</v>
+        <v>0.0007591949821151441</v>
       </c>
       <c r="BD8">
-        <v>0.001540523037488016</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>0.02174768764055509</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>0.05070701953021358</v>
+        <v>0.03320642299160647</v>
       </c>
       <c r="BG8">
-        <v>0.1559283730952239</v>
+        <v>0.2019426705781308</v>
       </c>
       <c r="BH8">
-        <v>0.02141581978703107</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.0001233589197002098</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0.0009066498304771898</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0.03292272895378535</v>
+        <v>0.004686979397860776</v>
       </c>
       <c r="BL8">
-        <v>0.004238701937582951</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0.0006413837690871274</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>0.000602464739345029</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>0.004187089489353448</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.009685706239759131</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.007911840846138501</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>0.007343859001271782</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>0.004581334808602772</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>0.0001361560381312482</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.001014820875292139</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>3.893119645458044E-05</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>0.002562332585584963</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>0.002409496096776174</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>0.006577773055436265</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>5.954484913770344E-06</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.007567283320475492</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.001156355293542418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -2779,100 +2779,100 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.3157401301176623</v>
+        <v>0.4555417900829909</v>
       </c>
       <c r="AW9">
-        <v>0.01174212648474225</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.155190148508987</v>
+        <v>0.1995846517220238</v>
       </c>
       <c r="AY9">
-        <v>0.04801530006736128</v>
+        <v>0.02872092918201099</v>
       </c>
       <c r="AZ9">
-        <v>0.06037194299511222</v>
+        <v>0.04842053258180679</v>
       </c>
       <c r="BA9">
-        <v>0.05130336280773608</v>
+        <v>0.03396292996796547</v>
       </c>
       <c r="BB9">
-        <v>0.005139466251770677</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>0.001160408841484367</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>0.03694669090430946</v>
+        <v>0.01107477626051084</v>
       </c>
       <c r="BE9">
-        <v>0.131703157982162</v>
+        <v>0.1621404687721303</v>
       </c>
       <c r="BF9">
-        <v>0.06798265222944957</v>
+        <v>0.06055392143056089</v>
       </c>
       <c r="BG9">
-        <v>0.01986423532959772</v>
+        <v>0</v>
       </c>
       <c r="BH9">
-        <v>0.00745805043557588</v>
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>3.952618255304791E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0.01437948922659334</v>
+        <v>0</v>
       </c>
       <c r="BK9">
-        <v>0.0001234610702551971</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>5.623095515733831E-05</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>0.001464737746274489</v>
+        <v>0</v>
       </c>
       <c r="BN9">
-        <v>0.01194943648774443</v>
+        <v>0</v>
       </c>
       <c r="BO9">
-        <v>0.01437948922659334</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0.01619917531173544</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>0.006422459000167056</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.001014272533806408</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>0.001424723478974273</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>0.004053107032748477</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>0.0003412433446617631</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>2.918977655400766E-05</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>0.004498667085628497</v>
+        <v>0</v>
       </c>
       <c r="BX9">
-        <v>0.008209258330991365</v>
+        <v>0</v>
       </c>
       <c r="BY9">
-        <v>0.001458366103291089</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>0.001161442464920221</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>0.0001780516853994286</v>
+        <v>0</v>
       </c>
       <c r="CB9">
         <v>0</v>
@@ -3021,100 +3021,100 @@
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0.09803506856729313</v>
+        <v>0.1195106839973187</v>
       </c>
       <c r="AW10">
-        <v>0.1294213475676074</v>
+        <v>0.1746439520375815</v>
       </c>
       <c r="AX10">
-        <v>0.06934548852091321</v>
+        <v>0.06911444853902161</v>
       </c>
       <c r="AY10">
-        <v>0.1523262003489148</v>
+        <v>0.2148787115578783</v>
       </c>
       <c r="AZ10">
-        <v>0.09284841370669725</v>
+        <v>0.1103997845288375</v>
       </c>
       <c r="BA10">
-        <v>0.04852928021109275</v>
+        <v>0.03254861057155219</v>
       </c>
       <c r="BB10">
-        <v>0.04561170189245412</v>
+        <v>0.02742358038022711</v>
       </c>
       <c r="BC10">
-        <v>0.01736802529233163</v>
+        <v>0</v>
       </c>
       <c r="BD10">
-        <v>0.0006769784335053226</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>0.04682153307542445</v>
+        <v>0.02954877486070388</v>
       </c>
       <c r="BF10">
-        <v>0.1257801650125346</v>
+        <v>0.1682478356393826</v>
       </c>
       <c r="BG10">
-        <v>0.06056102184134549</v>
+        <v>0.0536836178874966</v>
       </c>
       <c r="BH10">
-        <v>0.004825729536873561</v>
+        <v>0</v>
       </c>
       <c r="BI10">
-        <v>0.003742145334017848</v>
+        <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0.0002583506760599633</v>
+        <v>0</v>
       </c>
       <c r="BK10">
-        <v>0.01121825822098096</v>
+        <v>0</v>
       </c>
       <c r="BL10">
-        <v>0.001346375796609026</v>
+        <v>0</v>
       </c>
       <c r="BM10">
-        <v>0.004800989314911307</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.01423519547264787</v>
+        <v>0</v>
       </c>
       <c r="BO10">
-        <v>0.008411649279983896</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>0.02253041653769306</v>
+        <v>0</v>
       </c>
       <c r="BQ10">
-        <v>0.00325593052881193</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.006933162835922808</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0.006448180970898397</v>
+        <v>0</v>
       </c>
       <c r="BT10">
-        <v>4.496078137233887E-07</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>0.004120662731046318</v>
+        <v>0</v>
       </c>
       <c r="BV10">
-        <v>0.005078825088112394</v>
+        <v>0</v>
       </c>
       <c r="BW10">
-        <v>0.001772397338485588</v>
+        <v>0</v>
       </c>
       <c r="BX10">
-        <v>0.008396724966413971</v>
+        <v>0</v>
       </c>
       <c r="BY10">
-        <v>0.004914446236858051</v>
+        <v>0</v>
       </c>
       <c r="BZ10">
-        <v>0.0003349604224444098</v>
+        <v>0</v>
       </c>
       <c r="CA10">
-        <v>4.992463330061767E-05</v>
+        <v>0</v>
       </c>
       <c r="CB10">
         <v>0</v>
@@ -3263,100 +3263,100 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.116363582041214</v>
+        <v>0.1445057778602601</v>
       </c>
       <c r="AW11">
-        <v>0.1890632222039774</v>
+        <v>0.2661486949739546</v>
       </c>
       <c r="AX11">
-        <v>0.06066704613607388</v>
+        <v>0.05131289429906962</v>
       </c>
       <c r="AY11">
-        <v>0.1415884978448146</v>
+        <v>0.1867127590148787</v>
       </c>
       <c r="AZ11">
-        <v>0.06223307922832599</v>
+        <v>0.05393322134899219</v>
       </c>
       <c r="BA11">
-        <v>0.02069145388960376</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.01554647337344622</v>
+        <v>0</v>
       </c>
       <c r="BC11">
-        <v>0.004110925042228674</v>
+        <v>0</v>
       </c>
       <c r="BD11">
-        <v>0.008750832677480109</v>
+        <v>0</v>
       </c>
       <c r="BE11">
-        <v>0.05508724009519077</v>
+        <v>0.04197661860056504</v>
       </c>
       <c r="BF11">
-        <v>0.1347616256133366</v>
+        <v>0.1752898599311937</v>
       </c>
       <c r="BG11">
-        <v>0.06206061709061416</v>
+        <v>0.05364465324224555</v>
       </c>
       <c r="BH11">
-        <v>0.002253985452311418</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>0.001469020639666292</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.005927958035974608</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0.02394352841339405</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0.003095956848197556</v>
+        <v>0</v>
       </c>
       <c r="BM11">
-        <v>0.003294983706609461</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.006989549253954087</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.0002708677417193709</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.04582304071440105</v>
+        <v>0.02647552072884064</v>
       </c>
       <c r="BQ11">
-        <v>0.004602928012254302</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.008054785529193155</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>0.003580234804273206</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.002648558998031116</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0.003551457047939013</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.0009067467757175231</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>5.391478488995025E-06</v>
+        <v>0</v>
       </c>
       <c r="BX11">
-        <v>0.00710849924852324</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>0.004064574226785514</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
-        <v>8.102320793114138E-05</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>0.001402314628329211</v>
+        <v>0</v>
       </c>
       <c r="CB11">
         <v>0</v>
@@ -3628,235 +3628,235 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1788987289031521</v>
+        <v>0.1884440424976165</v>
       </c>
       <c r="E2">
-        <v>0.2262624105225119</v>
+        <v>0.2308194600430963</v>
       </c>
       <c r="F2">
-        <v>0.3271522107780994</v>
+        <v>0.3326352070647953</v>
       </c>
       <c r="G2">
-        <v>0.385731291890742</v>
+        <v>0.3874652366403158</v>
       </c>
       <c r="H2">
-        <v>0.7141221517402141</v>
+        <v>0.7419191028268344</v>
       </c>
       <c r="I2">
-        <v>0.7332745336621469</v>
+        <v>0.7529660961993633</v>
       </c>
       <c r="J2">
-        <v>0.7332745336621469</v>
+        <v>0.7529660961993633</v>
       </c>
       <c r="K2">
-        <v>0.7332745336621469</v>
+        <v>0.7529660961993633</v>
       </c>
       <c r="L2">
-        <v>0.7390105198265277</v>
+        <v>0.7529660961993633</v>
       </c>
       <c r="M2">
-        <v>0.7390105198265277</v>
+        <v>0.7529660961993633</v>
       </c>
       <c r="N2">
-        <v>0.8642773391402276</v>
+        <v>0.8818523292077222</v>
       </c>
       <c r="O2">
-        <v>0.9612246995014606</v>
+        <v>0.9792900280497423</v>
       </c>
       <c r="P2">
-        <v>0.9632834071037796</v>
+        <v>0.9792900280497423</v>
       </c>
       <c r="Q2">
-        <v>0.9632834071037796</v>
+        <v>0.9792900280497423</v>
       </c>
       <c r="R2">
-        <v>0.9721460892963706</v>
+        <v>0.9792900280497423</v>
       </c>
       <c r="S2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -3999,97 +3999,97 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.02697337714832499</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.2599660348720169</v>
+        <v>0.373080033976325</v>
       </c>
       <c r="AW3">
-        <v>0.3618896797427268</v>
+        <v>0.5052684400643439</v>
       </c>
       <c r="AX3">
-        <v>0.4038965236254384</v>
+        <v>0.5273358082831879</v>
       </c>
       <c r="AY3">
-        <v>0.5060624648744896</v>
+        <v>0.65996953068007</v>
       </c>
       <c r="AZ3">
-        <v>0.5356985502518835</v>
+        <v>0.65996953068007</v>
       </c>
       <c r="BA3">
-        <v>0.5370438190682716</v>
+        <v>0.65996953068007</v>
       </c>
       <c r="BB3">
-        <v>0.5483605980781142</v>
+        <v>0.65996953068007</v>
       </c>
       <c r="BC3">
-        <v>0.5619544064341403</v>
+        <v>0.65996953068007</v>
       </c>
       <c r="BD3">
-        <v>0.6045531927700876</v>
+        <v>0.6831248294331593</v>
       </c>
       <c r="BE3">
-        <v>0.7060642743878423</v>
+        <v>0.8145549858674421</v>
       </c>
       <c r="BF3">
-        <v>0.7061753162831964</v>
+        <v>0.8145549858674421</v>
       </c>
       <c r="BG3">
-        <v>0.7596741967639992</v>
+        <v>0.857743558432056</v>
       </c>
       <c r="BH3">
-        <v>0.770754642732535</v>
+        <v>0.857743558432056</v>
       </c>
       <c r="BI3">
-        <v>0.8687087972416525</v>
+        <v>0.9826364415411728</v>
       </c>
       <c r="BJ3">
-        <v>0.8736425625721811</v>
+        <v>0.9826364415411728</v>
       </c>
       <c r="BK3">
-        <v>0.8738727768854204</v>
+        <v>0.9826364415411728</v>
       </c>
       <c r="BL3">
-        <v>0.8758301019347323</v>
+        <v>0.9826364415411728</v>
       </c>
       <c r="BM3">
-        <v>0.8940188304811001</v>
+        <v>0.9826364415411728</v>
       </c>
       <c r="BN3">
-        <v>0.8956295055207869</v>
+        <v>0.9826364415411728</v>
       </c>
       <c r="BO3">
-        <v>0.9350770088930036</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0.9558704019595596</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0.9753073585430334</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.9793796787913496</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0.9876250587566405</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.9895513740681763</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.99159025303586</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0.9920121067923474</v>
+        <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.9959988330517316</v>
+        <v>1</v>
       </c>
       <c r="BX3">
-        <v>0.997215938825275</v>
+        <v>1</v>
       </c>
       <c r="BY3">
-        <v>0.9988577101517757</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
         <v>1</v>
@@ -4244,103 +4244,103 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.2751837468189834</v>
+        <v>0.4584104844214785</v>
       </c>
       <c r="AW4">
-        <v>0.3539082755700734</v>
+        <v>0.5486652272268926</v>
       </c>
       <c r="AX4">
-        <v>0.4355442500920935</v>
+        <v>0.6443758885049196</v>
       </c>
       <c r="AY4">
-        <v>0.5459417818602792</v>
+        <v>0.7939844149079909</v>
       </c>
       <c r="AZ4">
-        <v>0.5732686633653847</v>
+        <v>0.7939844149079909</v>
       </c>
       <c r="BA4">
-        <v>0.5733818187413871</v>
+        <v>0.7939844149079909</v>
       </c>
       <c r="BB4">
-        <v>0.5978990808120229</v>
+        <v>0.7939844149079909</v>
       </c>
       <c r="BC4">
-        <v>0.6288935192443436</v>
+        <v>0.7947951144584043</v>
       </c>
       <c r="BD4">
-        <v>0.6522923454564866</v>
+        <v>0.7947951144584043</v>
       </c>
       <c r="BE4">
-        <v>0.7557949397452247</v>
+        <v>0.9314828380296881</v>
       </c>
       <c r="BF4">
-        <v>0.7586590836814686</v>
+        <v>0.9314828380296881</v>
       </c>
       <c r="BG4">
-        <v>0.8031666169537183</v>
+        <v>0.9576164697451018</v>
       </c>
       <c r="BH4">
-        <v>0.8292637200101303</v>
+        <v>0.9576164697451018</v>
       </c>
       <c r="BI4">
-        <v>0.8735725524514182</v>
+        <v>0.9833777450371222</v>
       </c>
       <c r="BJ4">
-        <v>0.8975218200885628</v>
+        <v>0.9833777450371222</v>
       </c>
       <c r="BK4">
-        <v>0.8983951896517187</v>
+        <v>0.9833777450371222</v>
       </c>
       <c r="BL4">
-        <v>0.9004324043116352</v>
+        <v>0.9833777450371222</v>
       </c>
       <c r="BM4">
-        <v>0.9203889945128924</v>
+        <v>0.9833777450371222</v>
       </c>
       <c r="BN4">
-        <v>0.9216730681531237</v>
+        <v>0.9833777450371222</v>
       </c>
       <c r="BO4">
-        <v>0.9611050384819571</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP4">
-        <v>0.9614514391258574</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ4">
-        <v>0.989763850988426</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR4">
-        <v>0.9902041567893025</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS4">
-        <v>0.9941564150876112</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT4">
-        <v>0.9941744341729095</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU4">
-        <v>0.9955061450170745</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV4">
-        <v>0.9955546797344935</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW4">
-        <v>0.9960602866496815</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BX4">
-        <v>0.9994183328722286</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BY4">
-        <v>0.9997456760678306</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BZ4">
-        <v>0.9998880671429734</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CA4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CB4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:80">
@@ -4354,235 +4354,235 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2229568361145985</v>
+        <v>0.2760031717188374</v>
       </c>
       <c r="E5">
-        <v>0.2774587018905858</v>
+        <v>0.3146499468923045</v>
       </c>
       <c r="F5">
-        <v>0.300285218649362</v>
+        <v>0.3146499468923045</v>
       </c>
       <c r="G5">
-        <v>0.3744581817698847</v>
+        <v>0.3810136886379472</v>
       </c>
       <c r="H5">
-        <v>0.6390312226743564</v>
+        <v>0.7156549188656134</v>
       </c>
       <c r="I5">
-        <v>0.6873577995871217</v>
+        <v>0.7456005894693855</v>
       </c>
       <c r="J5">
-        <v>0.6873577995871217</v>
+        <v>0.7456005894693855</v>
       </c>
       <c r="K5">
-        <v>0.7241150706296979</v>
+        <v>0.759244878485191</v>
       </c>
       <c r="L5">
-        <v>0.7241150706296979</v>
+        <v>0.759244878485191</v>
       </c>
       <c r="M5">
-        <v>0.8516059866479924</v>
+        <v>0.9007346740691523</v>
       </c>
       <c r="N5">
-        <v>0.8521468255327516</v>
+        <v>0.9007346740691523</v>
       </c>
       <c r="O5">
-        <v>0.9496704776116508</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9764800324589008</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.9764800324589008</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.9777138046019435</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.9943316534886207</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.9943316534886207</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9943316534886207</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9943316534886207</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9960121341269564</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9960121341269564</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9966786120902362</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9973852364857289</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9973852364857289</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9973852364857289</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9973852364857289</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9973852364857289</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9973852364857289</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:80">
@@ -4596,82 +4596,82 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2552640523977103</v>
+        <v>0.2762225708683844</v>
       </c>
       <c r="E6">
-        <v>0.2552640523977103</v>
+        <v>0.2762225708683844</v>
       </c>
       <c r="F6">
-        <v>0.5148330767066995</v>
+        <v>0.557291833633252</v>
       </c>
       <c r="G6">
-        <v>0.5446024059707083</v>
+        <v>0.5796443514942319</v>
       </c>
       <c r="H6">
-        <v>0.6408804340277372</v>
+        <v>0.6768747496594274</v>
       </c>
       <c r="I6">
-        <v>0.6408804340277372</v>
+        <v>0.6768747496594274</v>
       </c>
       <c r="J6">
-        <v>0.6408804340277372</v>
+        <v>0.6768747496594274</v>
       </c>
       <c r="K6">
-        <v>0.6408804340277372</v>
+        <v>0.6768747496594274</v>
       </c>
       <c r="L6">
-        <v>0.6408804340277372</v>
+        <v>0.6768747496594274</v>
       </c>
       <c r="M6">
-        <v>0.759149418494108</v>
+        <v>0.7988633558737439</v>
       </c>
       <c r="N6">
-        <v>0.7944651487033854</v>
+        <v>0.8274602109964024</v>
       </c>
       <c r="O6">
-        <v>0.7944651487033854</v>
+        <v>0.8274602109964024</v>
       </c>
       <c r="P6">
-        <v>0.8653595522559401</v>
+        <v>0.8961128135976191</v>
       </c>
       <c r="Q6">
-        <v>0.8653595522559401</v>
+        <v>0.8961128135976191</v>
       </c>
       <c r="R6">
-        <v>0.8828166168116868</v>
+        <v>0.9046037419247528</v>
       </c>
       <c r="S6">
-        <v>0.915382713952902</v>
+        <v>0.9301049614465464</v>
       </c>
       <c r="T6">
-        <v>0.915382713952902</v>
+        <v>0.9301049614465464</v>
       </c>
       <c r="U6">
-        <v>0.915382713952902</v>
+        <v>0.9301049614465464</v>
       </c>
       <c r="V6">
-        <v>0.9216171128309316</v>
+        <v>0.9301049614465464</v>
       </c>
       <c r="W6">
-        <v>0.9216171128309316</v>
+        <v>0.9301049614465464</v>
       </c>
       <c r="X6">
-        <v>0.9936150839281501</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9936150839281501</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9936150839281501</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9936150839281501</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9936150839281501</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9936150839281501</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -4970,103 +4970,103 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.239636304292584</v>
+        <v>0.3618013147046515</v>
       </c>
       <c r="AW7">
-        <v>0.2490925117795824</v>
+        <v>0.3618013147046515</v>
       </c>
       <c r="AX7">
-        <v>0.33336775733993</v>
+        <v>0.4554723764318461</v>
       </c>
       <c r="AY7">
-        <v>0.3769260633205265</v>
+        <v>0.4788720110776725</v>
       </c>
       <c r="AZ7">
-        <v>0.4583801503261395</v>
+        <v>0.5676741695987284</v>
       </c>
       <c r="BA7">
-        <v>0.5215354066576809</v>
+        <v>0.6248952476491191</v>
       </c>
       <c r="BB7">
-        <v>0.529616605210609</v>
+        <v>0.6248952476491191</v>
       </c>
       <c r="BC7">
-        <v>0.5730495679295182</v>
+        <v>0.6480785583284413</v>
       </c>
       <c r="BD7">
-        <v>0.597762406056687</v>
+        <v>0.6480785583284413</v>
       </c>
       <c r="BE7">
-        <v>0.6673821198987435</v>
+        <v>0.716456335758976</v>
       </c>
       <c r="BF7">
-        <v>0.7772369460321449</v>
+        <v>0.854273977498418</v>
       </c>
       <c r="BG7">
-        <v>0.8916740764539289</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0.9018306076637309</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0.901919085698173</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0.9120948671742287</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.9188286326198037</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0.9191251308507075</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0.9191819367883947</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0.9231114972480375</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.9241483762587985</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0.9361987806747095</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0.942521237104446</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0.9479444819950195</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0.9483754062240112</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0.9574715536374795</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0.959848203983201</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0.9607819002478193</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.9625382544754779</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0.9877413647303634</v>
+        <v>1</v>
       </c>
       <c r="BY7">
-        <v>0.9967627114257527</v>
+        <v>1</v>
       </c>
       <c r="BZ7">
-        <v>0.9988720813191896</v>
+        <v>1</v>
       </c>
       <c r="CA7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:80">
@@ -5215,97 +5215,97 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0.3407213668241411</v>
+        <v>0.4982824845573577</v>
       </c>
       <c r="AX8">
-        <v>0.3407410772500604</v>
+        <v>0.4982824845573577</v>
       </c>
       <c r="AY8">
-        <v>0.4444118401415706</v>
+        <v>0.6164232199307117</v>
       </c>
       <c r="AZ8">
-        <v>0.5272324512747744</v>
+        <v>0.7011280010029026</v>
       </c>
       <c r="BA8">
-        <v>0.5914059903393558</v>
+        <v>0.7559297551444353</v>
       </c>
       <c r="BB8">
-        <v>0.623572933002066</v>
+        <v>0.7594047320502869</v>
       </c>
       <c r="BC8">
-        <v>0.6540463554277778</v>
+        <v>0.7601639270324021</v>
       </c>
       <c r="BD8">
-        <v>0.6555868784652658</v>
+        <v>0.7601639270324021</v>
       </c>
       <c r="BE8">
-        <v>0.6773345661058209</v>
+        <v>0.7601639270324021</v>
       </c>
       <c r="BF8">
-        <v>0.7280415856360345</v>
+        <v>0.7933703500240086</v>
       </c>
       <c r="BG8">
-        <v>0.8839699587312584</v>
+        <v>0.9953130206021393</v>
       </c>
       <c r="BH8">
-        <v>0.9053857785182895</v>
+        <v>0.9953130206021393</v>
       </c>
       <c r="BI8">
-        <v>0.9055091374379897</v>
+        <v>0.9953130206021393</v>
       </c>
       <c r="BJ8">
-        <v>0.9064157872684668</v>
+        <v>0.9953130206021393</v>
       </c>
       <c r="BK8">
-        <v>0.9393385162222522</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0.9435772181598351</v>
+        <v>1</v>
       </c>
       <c r="BM8">
-        <v>0.9442186019289223</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>0.9448210666682673</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0.9490081561576207</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0.9586938623973799</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0.9666057032435184</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0.9739495622447901</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.9785308970533929</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0.9786670530915241</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>0.9796818739668163</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0.9797208051632709</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0.9822831377488558</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0.984692633845632</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>0.9912704069010683</v>
+        <v>1</v>
       </c>
       <c r="BZ8">
-        <v>0.9912763613859821</v>
+        <v>1</v>
       </c>
       <c r="CA8">
-        <v>0.9988436447064576</v>
+        <v>1</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -5454,97 +5454,97 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.3157401301176623</v>
+        <v>0.4555417900829909</v>
       </c>
       <c r="AW9">
-        <v>0.3274822566024045</v>
+        <v>0.4555417900829909</v>
       </c>
       <c r="AX9">
-        <v>0.4826724051113915</v>
+        <v>0.6551264418050148</v>
       </c>
       <c r="AY9">
-        <v>0.5306877051787529</v>
+        <v>0.6838473709870257</v>
       </c>
       <c r="AZ9">
-        <v>0.591059648173865</v>
+        <v>0.7322679035688325</v>
       </c>
       <c r="BA9">
-        <v>0.6423630109816011</v>
+        <v>0.766230833536798</v>
       </c>
       <c r="BB9">
-        <v>0.6475024772333717</v>
+        <v>0.766230833536798</v>
       </c>
       <c r="BC9">
-        <v>0.6486628860748561</v>
+        <v>0.766230833536798</v>
       </c>
       <c r="BD9">
-        <v>0.6856095769791656</v>
+        <v>0.7773056097973088</v>
       </c>
       <c r="BE9">
-        <v>0.8173127349613275</v>
+        <v>0.9394460785694392</v>
       </c>
       <c r="BF9">
-        <v>0.8852953871907771</v>
+        <v>1</v>
       </c>
       <c r="BG9">
-        <v>0.9051596225203747</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>0.9126176729559506</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0.9126571991385037</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0.9270366883650971</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0.9271601494353523</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0.9272163803905097</v>
+        <v>1</v>
       </c>
       <c r="BM9">
-        <v>0.9286811181367842</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0.9406305546245286</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0.955010043851122</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0.9712092191628574</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0.9776316781630244</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0.9786459506968308</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0.9800706741758051</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9841237812085536</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0.9844650245532154</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0.9844942143297694</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0.9889928814153979</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0.9972021397463893</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0.9986605058496804</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0.9998219483146006</v>
+        <v>1</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -5696,103 +5696,103 @@
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0.09803506856729313</v>
+        <v>0.1195106839973187</v>
       </c>
       <c r="AW10">
-        <v>0.2274564161349005</v>
+        <v>0.2941546360349002</v>
       </c>
       <c r="AX10">
-        <v>0.2968019046558137</v>
+        <v>0.3632690845739218</v>
       </c>
       <c r="AY10">
-        <v>0.4491281050047285</v>
+        <v>0.5781477961318001</v>
       </c>
       <c r="AZ10">
-        <v>0.5419765187114257</v>
+        <v>0.6885475806606376</v>
       </c>
       <c r="BA10">
-        <v>0.5905057989225184</v>
+        <v>0.7210961912321898</v>
       </c>
       <c r="BB10">
-        <v>0.6361175008149725</v>
+        <v>0.7485197716124169</v>
       </c>
       <c r="BC10">
-        <v>0.6534855261073041</v>
+        <v>0.7485197716124169</v>
       </c>
       <c r="BD10">
-        <v>0.6541625045408095</v>
+        <v>0.7485197716124169</v>
       </c>
       <c r="BE10">
-        <v>0.700984037616234</v>
+        <v>0.7780685464731207</v>
       </c>
       <c r="BF10">
-        <v>0.8267642026287685</v>
+        <v>0.9463163821125034</v>
       </c>
       <c r="BG10">
-        <v>0.887325224470114</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0.8921509540069875</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0.8958930993410054</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.8961514500170653</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0.9073697082380463</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9087160840346553</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9135170733495667</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0.9277522688222145</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0.9361639181021985</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0.9586943346398915</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.9619502651687034</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0.9688834280046262</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0.9753316089755246</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0.9753320585833384</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0.9794527213143847</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0.9845315464024971</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9863039437409826</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9947006687073966</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0.9996151149442547</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0.9999500753666991</v>
+        <v>1</v>
       </c>
       <c r="CA10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:80">
@@ -5938,97 +5938,97 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.116363582041214</v>
+        <v>0.1445057778602601</v>
       </c>
       <c r="AW11">
-        <v>0.3054268042451914</v>
+        <v>0.4106544728342147</v>
       </c>
       <c r="AX11">
-        <v>0.3660938503812653</v>
+        <v>0.4619673671332843</v>
       </c>
       <c r="AY11">
-        <v>0.5076823482260798</v>
+        <v>0.6486801261481631</v>
       </c>
       <c r="AZ11">
-        <v>0.5699154274544058</v>
+        <v>0.7026133474971552</v>
       </c>
       <c r="BA11">
-        <v>0.5906068813440096</v>
+        <v>0.7026133474971552</v>
       </c>
       <c r="BB11">
-        <v>0.6061533547174558</v>
+        <v>0.7026133474971552</v>
       </c>
       <c r="BC11">
-        <v>0.6102642797596844</v>
+        <v>0.7026133474971552</v>
       </c>
       <c r="BD11">
-        <v>0.6190151124371646</v>
+        <v>0.7026133474971552</v>
       </c>
       <c r="BE11">
-        <v>0.6741023525323553</v>
+        <v>0.7445899660977202</v>
       </c>
       <c r="BF11">
-        <v>0.8088639781456919</v>
+        <v>0.9198798260289139</v>
       </c>
       <c r="BG11">
-        <v>0.8709245952363061</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BH11">
-        <v>0.8731785806886174</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BI11">
-        <v>0.8746476013282837</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BJ11">
-        <v>0.8805755593642582</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BK11">
-        <v>0.9045190877776523</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BL11">
-        <v>0.9076150446258499</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BM11">
-        <v>0.9109100283324593</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BN11">
-        <v>0.9178995775864134</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BO11">
-        <v>0.9181704453281327</v>
+        <v>0.9735244792711595</v>
       </c>
       <c r="BP11">
-        <v>0.9639934860425338</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.968596414054788</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9766511995839812</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9802314343882543</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9828799933862854</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.9864314504342244</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.987338197209942</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.987343588688431</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9944520879369542</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9985166621637397</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9985976853716708</v>
+        <v>1</v>
       </c>
       <c r="CA11">
         <v>1</v>
@@ -6096,34 +6096,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.7419191028268344</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7141221517402141</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>53</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -6137,34 +6137,34 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5052684400643439</v>
       </c>
       <c r="F3">
-        <v>0.5060624648744896</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>53</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -6178,34 +6178,34 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5486652272268926</v>
       </c>
       <c r="F4">
-        <v>0.5459417818602792</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>53</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -6219,34 +6219,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.7156549188656134</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6390312226743564</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>53</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -6260,34 +6260,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.557291833633252</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5148330767066995</v>
-      </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>53</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -6301,34 +6301,34 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5676741695987284</v>
       </c>
       <c r="F7">
-        <v>0.5215354066576809</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>53</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -6342,34 +6342,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.6164232199307117</v>
       </c>
       <c r="F8">
-        <v>0.5272324512747744</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>53</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -6383,34 +6383,34 @@
         <v>87</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>45</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6551264418050148</v>
       </c>
       <c r="F9">
-        <v>0.5306877051787529</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>53</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -6424,34 +6424,34 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>45</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5781477961318001</v>
       </c>
       <c r="F10">
-        <v>0.5419765187114257</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>53</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -6465,34 +6465,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.6486801261481631</v>
+      </c>
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5076823482260798</v>
-      </c>
       <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>53</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
@@ -6560,34 +6560,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.7419191028268344</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7141221517402141</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>53</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -6601,34 +6601,34 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
       <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.8145549858674421</v>
+      </c>
+      <c r="F3">
         <v>56</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7060642743878423</v>
-      </c>
       <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>53</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -6642,34 +6642,34 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7939844149079909</v>
       </c>
       <c r="F4">
-        <v>0.7557949397452247</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>53</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -6683,34 +6683,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7156549188656134</v>
       </c>
       <c r="F5">
-        <v>0.7241150706296979</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>53</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -6724,34 +6724,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.7988633558737439</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.759149418494108</v>
-      </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>11</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>53</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -6765,34 +6765,34 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.716456335758976</v>
       </c>
       <c r="F7">
-        <v>0.7772369460321449</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>53</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -6806,34 +6806,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7011280010029026</v>
       </c>
       <c r="F8">
-        <v>0.7280415856360345</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>53</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -6847,34 +6847,34 @@
         <v>87</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>45</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7322679035688325</v>
       </c>
       <c r="F9">
-        <v>0.8173127349613275</v>
+        <v>51</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>53</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -6888,34 +6888,34 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>45</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7210961912321898</v>
       </c>
       <c r="F10">
-        <v>0.700984037616234</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>53</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -6929,34 +6929,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7026133474971552</v>
       </c>
       <c r="F11">
-        <v>0.8088639781456919</v>
+        <v>51</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>53</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
@@ -7024,34 +7024,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.8818523292077222</v>
+      </c>
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8642773391402276</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>53</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -7065,34 +7065,34 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8145549858674421</v>
       </c>
       <c r="F3">
-        <v>0.8687087972416525</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>53</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -7106,34 +7106,34 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9314828380296881</v>
       </c>
       <c r="F4">
-        <v>0.8031666169537183</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>53</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -7147,34 +7147,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9007346740691523</v>
+      </c>
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8516059866479924</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>53</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -7188,34 +7188,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8274602109964024</v>
       </c>
       <c r="F6">
-        <v>0.8653595522559401</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>53</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -7229,34 +7229,34 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.854273977498418</v>
       </c>
       <c r="F7">
-        <v>0.8916740764539289</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>53</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -7270,34 +7270,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.9953130206021393</v>
+      </c>
+      <c r="F8">
         <v>58</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8839699587312584</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>53</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -7311,34 +7311,34 @@
         <v>87</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>45</v>
       </c>
       <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.9394460785694392</v>
+      </c>
+      <c r="F9">
         <v>56</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8173127349613275</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>53</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -7352,34 +7352,34 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>45</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.9463163821125034</v>
+      </c>
+      <c r="F10">
         <v>57</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8267642026287685</v>
-      </c>
       <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>53</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -7393,34 +7393,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.9198798260289139</v>
+      </c>
+      <c r="F11">
         <v>57</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8088639781456919</v>
-      </c>
       <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>53</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
@@ -7488,34 +7488,34 @@
         <v>80</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.9792900280497423</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9612246995014606</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2">
         <v>53</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -7529,34 +7529,34 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9826364415411728</v>
       </c>
       <c r="F3">
-        <v>0.9350770088930036</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3">
         <v>53</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -7570,34 +7570,34 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9314828380296881</v>
       </c>
       <c r="F4">
-        <v>0.9004324043116352</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4">
         <v>53</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -7611,34 +7611,34 @@
         <v>83</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9007346740691523</v>
       </c>
       <c r="F5">
-        <v>0.9496704776116508</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5">
         <v>53</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -7652,34 +7652,34 @@
         <v>84</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9046037419247528</v>
       </c>
       <c r="F6">
-        <v>0.915382713952902</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
         <v>53</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -7693,34 +7693,34 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.9018306076637309</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7">
         <v>53</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -7734,34 +7734,34 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9953130206021393</v>
       </c>
       <c r="F8">
-        <v>0.9053857785182895</v>
+        <v>58</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8">
         <v>53</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -7775,34 +7775,34 @@
         <v>87</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>45</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9394460785694392</v>
       </c>
       <c r="F9">
-        <v>0.9051596225203747</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9">
         <v>53</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -7816,34 +7816,34 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>45</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9463163821125034</v>
       </c>
       <c r="F10">
-        <v>0.9073697082380463</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10">
         <v>53</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -7857,34 +7857,34 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9198798260289139</v>
       </c>
       <c r="F11">
-        <v>0.9045190877776523</v>
+        <v>57</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
         <v>53</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
